--- a/500all/speech_level/speeches_CHRG-114hhrg20830.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20830.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome to today's hearing entitled ``Midnight Regulations: Examining Executive Branch Overreach.'' I'll recognize myself for five minutes and then the Ranking Member for her opening statement.    President Obama has rushed through many costly and burdensome regulations over the last seven years. These include the ozone National Ambient Air Quality Standards, the Waters of the United States, and the Clean Power Plan. The Obama Administration shows no signs of slowing down and no doubt will continue to pursue its partisan and extreme agenda, regardless of the price to the American people.    The speed at which these regulations are being finalized provide little certainty that these rules are based on a sound and transparent review of the underlying scientific data and analysis. The President's regulatory overreach will cost billions of dollars, cause financial hardship for American families, and diminish the competitiveness of American employers, all with no significant benefit to climate change, public health, or the economy.    According to the American Action Forum, regulatory costs topped $197 billion in 2015. This is a cost of over $600 for every American citizen. From 2016 alone, the Obama Administration has proposed another $98 billion in regulatory costs. According to AAF's analysis, my home State of Texas is one of the hardest hit by these burdensome regulations.    Despite heavy and growing public opposition to these proposals, the Obama Administration is actively willing to commit the United States to costly new regulations that will do nothing to improve the environment but will negatively impact economic growth. The Clean Power Plan and the Waters of the United States rule are just more of the EPA's attempts to expand its jurisdiction and increase its control over Americans. Congress voted against these rules through the Congressional Review Act last month. And the governors of most states continue to challenge overreaching regulations in court.    Yesterday, the Supreme Court blocked the Administration's rules to limit greenhouse gas emissions from power plants. The Court's ruling confirms that this rule overreaches EPA's authority.    But nothing seems to deter President Obama from achieving his extreme and unconstitutional climate agenda. Now, in an attempt to solidify his legacy before he leaves office, the President plans to rush through even more regulations. In the past year, the Department of Energy proposed 15 new energy efficiency standards, compared with just five energy efficiency standards proposed between 2009 and 2012. The DOE now works to issue costly energy efficiency rules on everything from household appliances to vending machines, including ceiling fans, air-conditioning and heating equipment, and residential boilers.    We should all be concerned about the process the EPA uses to reach their regulatory conclusions. The agency rushes to enact environmental regulations without thorough, public review of the data used to justify these rules. This hearing provides yet another example of why legislation like the Secret Science Reform Act and the Science Advisory Board Reform Act are important checks on regulatory overreach. We should require more fairness, transparency, and public engagement in the rulemaking process. The President should not rush scientific analysis to appease his political supporters.    We all support energy efficiency and a clean environment. The air we breathe is significantly cleaner and will continue to improve due to the development of new technologies. Basic research and development will continue to lead the way to energy solutions. This research should be allowed to mature so the private sector can transition new technologies into the market before the federal government sets new energy efficiency and environmental standards. There may be serious economic consequences if the EPA and the DOE rush forward with these proposed regulations. The cost is certain but the benefits are not.    Today's witnesses will discuss how regulatory burdens fall disproportionately upon small businesses and negatively impact economic productivity. Small businesses, like individual Americans, ultimately pay for these regulations. Higher prices for goods and services, combined with reduced economic activity, hinder private sector innovation and cause businesses to struggle to stay open.    These proposed regulations will have an even greater adverse impact on those who live on fixed incomes, such as the elderly and the poor, who are the most vulnerable to increases in the price for basic necessities like electricity and heat. More should be done to hold this Administration accountable. We must cut regulatory red tape and put America back on a path to growth and prosperity.    For this reason, I am pleased that the Speaker has selected the Science Committee to help lead a taskforce to reduce costly and unnecessary regulatory burdens. Rushed regulations in a President's last year are bad for the American economy and the American people. We can't afford to rush through regulations with little substantive environmental benefit and heavy costs to our economy.</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Chairman Smith. I'm pleased to introduce our third witness and fellow Texan Mr. Jerry Bosworth, President of Bosworth Air Conditioning and Vice Chairman of the Air Conditioning Contractors of America. Bosworth Air Conditioning is a family-owned and -operated business of ten employees, which was founded in 1959. Jerry was just a young whippersnapper back then. Bosworth A.C. specializes in both installation and service and replacement of both residential and commercial systems. Jerry served as Chairman of ACCA, Air Conditioning Contractors Association, and of the Members Services Committee. Prior to being elected to the National Board, he donated his time and energy as a member of the local contracting association, TACCA, or we would call it also Houston's Air Conditioning Contractors Association, and served on the board of his state contracting association.    Mr. Chairman, we are very grateful to have you here today. He's got one of the oldest and, I might add, finest air-conditioning companies next to Weber's Air and Heat on the Gulf Coast. So I'll----</t>
   </si>
   <si>
@@ -91,36 +85,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Kerrigan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kerrigan. Great. Well, thank you, Chairman Smith. It's a pleasure to be here. Thanks. Good morning to all the committee members. And it's--again, thank you for the invitation. This is a very important issue for our members in the small business sector of the economy.    It should come as no surprise to members of the committee that many small businesses have concerns about federal regulations and the process by which the rules are made. A host of new rules and ones yet to come are piling on at a time when small businesses continue to struggle in a very tough economy. Complying with existing regulations and navigating new rules takes time and significant resources. Business owners are now looking at what's currently in the pipeline, which only perpetuates the uncertainty that's behind less risk-taking and growth.    The period between the recession until now has been challenging for small businesses. A Bank of America survey conducted midyear last year found that only one in five small business owners say they have completely recovered from the Great Recession. So it is times such as these that federal agencies and government policies need to be especially sensitive about how proposed actions impact entrepreneurship and small business growth. After all, even given their struggles and challenges, small businesses and startups still remain the engine of job creation and innovation in our nation.    And it's that understanding that was behind the development and passage of laws meant to protect small businesses from excessive regulation and provide them with some voice in the regulatory process. But unfortunately, there has been a breakdown in the process and responsiveness to their concerns.    So as we enter a period where there will be a change of Administrations, and historically, this has been a time where there is an uptick in new rulemakings, I think you can empathize with the concerns of small business owners who feel that their voice and concerns can be minimized even further. We are concerned that an anticipated regulatory rush could lead to more shortcuts in a process that is meant to look out for small business owners.    The Mercatus Center analyzed data during the midnight regulatory period across Administrations from 1975 to 2006 and found regulatory analysis quality drops and regulatory oversight by the Office of Information and Regulatory Affairs weakens. As a result, federal agencies produce ineffective regulation, and these rules are more likely to be more costly.    So this is why we do hope there can be some actions, some reforms that will improve the process and make it more accountable and inclusive for the small business community because small businesses are disproportionately impacted by regulation, and I would add more so by environmental regulation. A National Association of Manufacturers' report details the disproportionate cost, which I've included in my written testimony.    EPA's possible activity is of concern given the Agency's history of improper certification of proposed rules when it comes to small business impact. On several major rulemakings, the SBA's Office of Advocacy made it clear that EPA's certification of rules did not comply with the Regulatory Flexibility Act. This was the case, for example, with greenhouse gas rules and the Waters of the United States Rule. In each of these cases, EPA's own analysis contradicted its certification.    The bottom line is that small businesses remain very concerned about what's ahead in 2016 on the federal regulatory front. With an economy that lacks a strong traction and with indications that economic growth may slow further, regulations that raise compliance and energy costs and make it more difficult to compete only create more headwinds for small businesses.    But I am somewhat optimistic. Thankfully, both sides of the political aisle recognize that we have a regulatory problem, a process problem as well. There are solid bipartisan solutions that have been proposed in the House and Senate that begin to chip away at the lack of accountability and to provide small businesses a greater voice and more protection in the regulatory process. And I look forward to discussing these with committee members. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Ms. Kerrigan.    And, Mr. Bosworth.</t>
   </si>
   <si>
-    <t>Bosworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bosworth. Yes. Is this still on? There we go. I'm sorry.    Chairman Smith, Ranking Member Johnson, and members of the committee on energy, thank you for the opportunity to testify before you today. My name is Jerry Bosworth, and I am the President of Bosworth Air Conditioning and Heating in Galveston, Texas.    Bosworth Air Conditioning and Heating has been selling, installing, and servicing Galveston County's residential and commercial comfort systems since 1959. I am here today representing the interests of ACCA, the Indoor Environmental and Energy Efficiency Association. ACCA is the leading national association representing the technical, educational, and policy interests of small business contractors that design, install, and maintain residential and commercial heating and cooling systems. But I am also before you today representing more than the 1 million Americans employed by the manufacturers, distributors, contractors--and contractors of the HVACR industry.    Today, I would like to highlight some of the concerns related to the uptick in the number of rules and regulations related to the energy and environmental regulations the Department of Energy and the Environmental Protection Agency have had significant adverse impact on manufacturers, distributors, and contractors.    From the Department of Energy, we have seen an aggressive push to increase the energy efficiency standards for residential and commercial heating, ventilation, air-conditioning, refrigeration equipment, as well as water heaters. At the time--at the same time, we have been--there have been problems with the test procedures used to rate some of the equipment that makes it more difficult to achieve these higher standards, affecting a double impact.    As an example, the Department of Energy recently proposed a set of new minimum national energy conservation standards for residential natural gas furnaces at 92 percent AFUE, a ratio that describes how efficiency--how efficiently the appliance converts gas to heat. According to DOE's own economic models, nearly 1/3 of all homeowners in 19 southern States and territories would never see a positive payback from replacing their existing furnace; 12 percent of homeowners in the 33 northern States, a similar prospect.    In proposing to set this standard, DOE is effectively eliminating one type of furnace technology that represents half of the current models shipped today. I have installed a lot of furnaces in my lifetime, but only once have I installed a furnace that approached the standard DOE wants to set as the basic model for all States.    Higher efficiency furnaces like the ones DOE wants to mandate as a minimum are not appropriate in all parts of the country, not even the North. This is because furnaces that have an AFUE ratio equal or above 90 percent have special requirements that can only add thousands of dollars to the installation cost. This may force the homeowners to repair or maintain an older, inefficient model instead of upgrading, or it can drive many homeowners in areas of low heat load to opt for a heat pump, driving up the utility costs, leading to more fossil fuel emissions at the energy plant.    On Section 608, 608, the production, use, and handling of hundreds of refrigerant compounds that make air-conditioning and refrigeration possible are controlled and regulated by the EPA. Many have found it--many of these have been found to harm the ozone layer or have a higher global warming potential if they are released into the atmosphere. EPA rules requires anybody who works on an air-conditioning system to take a certification test to obtain their 608 card, named after Section 608 of the Clean Air Act, prohibiting the release of most refrigerants while performing any service or maintenance.    In order to comply with these rules, the service technician must be trained, have the required equipment, take the extra time to properly evacuate the entire refrigerant into an appropriate container before performing any service work to the sealed system. ACCA has no problem with these rules, but unfortunately, there are a lot of individuals who claim to be professional contractors who skirt these rules and are never caught. The bottom line--the bottom-feeders take advantage of a lax enforcement and undermine our industry.    So we think that better enforcement of--we would like to see better enforcement of the Section 608 rule. Unless significant changes are made to Section 608 program through increased enforcement, it cannot accomplish its mission to protect the environment and should be abandoned.    Lastly, I would like to bring to the Committee's attention an important gap in existing regulatory scheme for residential equipment. According to a 2013 National Institute of Standards and Technology study, there are substantial equipment efficiency losses due to poor installation practices typically due to duct leakage, refrigerant undercharge/overcharge, low indoor airflow, oversized equipment, and undersized ductwork.    For years, ACCA has championed the need for quality installations in the HVACR contracting business, and DOE seems to ignore our pleas.    So I look forward to any questions from the Committee. Thank you much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Bosworth.    And, Ms. Callahan.</t>
   </si>
   <si>
-    <t>Callahan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Callahan. Thank you, Mr. Chairman, and members of the committee, for the opportunity to testify before you today. I'm going to take a bit of departure from my fellow witnesses so far and talk about the significant and very positive impacts that appliance, equipment, and vehicle efficiency standards are having on our economy.    My organization, the Alliance to Save Energy, is a nonprofit coalition that has worked for 39 years to advance energy efficiency for the economic benefits, the improvement of the environment benefits, and also to enhance our energy security.    I'm very proud of the fact that we were founded by two then-sitting Members of Congress, Hubert Humphrey, a Democrat from Illinois; and Chuck Percy, a Republican from--excuse me--Hubert Humphrey, a Democrat from Minnesota; and Chuck Percy, a Republican from Illinois.    We have jealously guarded our inherited culture of bipartisanship, and today, we count 14 sitting Members of Congress from both sides of the aisle and both sides of the Capitol as honorary members of our board. And I'd like to take this moment to note that we are very pleased that Congressman Paul Tonko, a member of this committee, is part of our august group.    Our Congressional Members are joined on our Board of Directors by leaders from business and organizations across all sectors of the economy, including manufacturers and HVAC folks. Since the birth of the Alliance, our country has made very great strides in advancing energy efficiency, and that's thanks in large measure to effective national public policies, most notably, the appliance, equipment, and vehicle efficiency standards.    Efficiency standards have proven to be the most cost-effective way of driving energy efficiency into our market. In fact, if you take together the corporate average fuel economy standards and all our appliance and equipment standards, we're shaving off the energy use equivalent to ten percent of what we consume today. And that translates into very big money savings for Americans.    Studies have shown that American businesses and consumers today are saving $800 billion every year on their energy bills. And as a country, we've doubled our energy productivity over the past three decades. That is to say that we are creating twice as much gross domestic product today than we did--using half of the energy than we did in 1980.    We've done this once, and at our organization we believe we can do it again. The Alliance has articulated the goal of doubling energy productivity once again by 2030. If we do it, the benefits to our country are simply transformative. We would recycle $327 billion into our economy from energy cost savings. We would create 1.3 million new jobs, and we'd reduce the need for imported energy to represent less than seven percent of our total demand. But we can only achieve this goal with a strong foundation of public policies, and efficiency standards are a cornerstone of good national energy efficiency policy.    Fortunately, the history of our national efficiency standards is one of bipartisan support. I'm not sure committee members are aware, but the first corporate average fuel economy standards were signed into law by President Ford, and the first appliance and equipment standards were signed into law by President Reagan. These laws were created and moved through the Congress with broad bipartisan support. Over the decades, this tradition of bipartisan support has remained solid, with the Congress enacting significant legislation in 1990, '92, 2005, and 2007. All included efficiency standards.    The bipartisan work--this bipartisan work on standards is paying big dividends for our economy. For example, by 2020, appliance and equipment standards alone, not including CAFE standards, will be contributing 387,000 annual jobs to our economy. And these are jobs that are spread all across all 50 States.    As the focus of this hearing is on midnight regulations, I believe it's important to note that in the case of efficiency standards at least, it's Congress--not the Administration--that dictates the timelines and deadlines for action. And these aren't tied in any way to a given President's term in office.    The typical time needed to complete a standards rulemaking is three years because it involves a significant engagement with impacted manufacturers, stakeholders, and others throughout the process. It is true that the pace of standards rulemaking has been brisk during the Obama Administration. This was driven in large part by a need to meet Congressional directives and court-ordered mandates to catch up on backlogged standards. We see no evidence that the Administration can or will rush any efficiency standards at the end of this President's term.    While we have achieved great success through our--through appliance and equipment efficiency standards, we do believe there's always room for improvement. The Alliance, along with many stakeholders and others, would like DOE to make more transparent the models and data that it's using to perform its energy savings and performance calculations. And doing so would help to avoid delays in litigation.    There's also a big something I'm here to ask you to do, and that is to refrain from placing ad hoc policy riders on legislation that prevents DOE from enforcing standards that have been codified. Mr. Bosworth already mentioned that this allows what I would call unscrupulous manufacturers--he calls them bottom-feeders--to flout the law. So we'd like to see that.    So in conclusion, there is a huge portfolio of research and analysis that demonstrates that efficiency standards are driving innovation, saving American businesses and consumers money on their energy bills, and they're creating jobs. All of this leads to a more energy-productive and more globally competitive economy. Congress should be proud of the work it has done in this area and should continue this legacy of bipartisan legislation to set minimum efficiency standards for our appliances, our equipment, and our vehicles. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Ms. Callahan.    And, Mr. Batkins.</t>
   </si>
   <si>
-    <t>Batkins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Batkins. Thank you, Chairman Smith, and Members of the Committee.    [Slide.]</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Okay. Thank you, Chair. And thank you to all of our witnesses for joining us today.    Kateri, it indeed is great to see you, and thank you for the awesome work the Alliance does on this issue. I'm proud to serve as an honorary member, as you indicated, of the Alliance's board, and I strongly believe that energy efficiency should be our fuel of choice.    I have to tell you, I shared with Chair Smith--he had asked me about that assignment. I said I was on the board with the Alliance prior to my days in Congress also as President and CEO of NYSERDA, New York State's Energy Research and Development Authority. So I'm proud of that assignment. I'm especially proud that New York's capital region has recognized that it is indeed necessary to innovate and make the transition to a more energy efficient world.    So my question to you, Ms. Callahan, in your assessment of the industry, it is your experience that regulation often will spur the private sector to innovate. Do you agree that private industry in America has proven time and time again that it has the ability to adapt and grow when new rules or policies are introduced? And specifically, how have you seen industry innovate as a result of energy efficiency standards?</t>
   </si>
   <si>
@@ -253,9 +232,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman, very much. I'd like to thank the Chair and the Ranking Member for having this hearing in the first place. It's very important. And thank all of you for coming and being with us. And I especially appreciate the perspective from both the majority and the minority that regulations are important and that it's important that we get them right.    I've been in business 42 years, and the--see the impact that OSHA has had, that clean air and clean water and food safety and drug effectiveness and all these incredible things.    But it's also important that we get the balance right in terms of the cost-effectiveness. I remember when I served in the Virginia Senate, one of the proposals was that we get rid of all asbestos in Virginia schools at a cost of $2 billion, and they estimated it would save the life of one child. We said, well, is that the best way to spend $2 billion in terms of children's health? And maybe not.    So let me move on. To Mr. Batkins, your chart I thought was fascinating because I just wanted to point out that the high point was in 2008 when George W. Bush was President, and that the low point over all those years was in 2012 when President Obama faced a very uncertain election against Mitt Romney. So I was glad to see that it was very--presented in a nonpartisan way, that this is not just beating up on President Obama for what you fear will happen in 2016.    Mr. Bosworth, thank you for talking about the unintended consequences of the condensing versus non-condensing furnaces. I loved your line that the false choice between short-sighted solution to repair and maintain old efficiency equipment--inefficient equipment and purchasing new equipment that will never have a positive payback.    Ms. Callahan wrote, and I quote, ``The process that leads to standards is informed at every step by stakeholders representing diverse sectors so that negotiations reflect the respective interests of industry and consumers and will have positive effects on the environment.'' And you just elaborated on that, Ms. Callahan, just a minute ago.    Mr. Bosworth, so you're in the business at the retail level. You said the process is broken. How does your experience differ from what Ms. Callahan talked about in terms of promulgating these regulations? Why haven't this process with industry and stakeholders and consumers not apparently worked with respect to these furnaces?</t>
   </si>
   <si>
@@ -331,9 +307,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Babin. Yes, sir. Thank you, Mr. Chairman. And thank you, panelists, for being here today.    At last week's full committee SST hearing, we learned that this Administration has apparently been using fuzzy math to justify their promised reductions, 26 to 28 percent reduction of greenhouse gas emissions from 2005 levels at the Paris Climate Conference this past December. It's another example of how far this President's Administration will go to fulfill a politically driven agenda. It is an agenda not based on sound science.    Over the last seven years, this President has pushed some of the costliest regulations in the history of the republic, including the Clean Power Plan, the ozone rule, and Waters of the United States. And in the final year of his Administration, President Obama is eager to push more of his ``all pain, no gain'' regulations in the same manner in which he pushed his other regulations, with little regard to regulatory process and the underlying science. And more importantly, he shows little regard as to how this would adversely affect senior citizens, the poor, and those living on fixed incomes, as we've heard earlier today.    It's extremely important to invoke all stakeholders in the regulatory process. We heard from the agricultural sector and others that EPA did not meaningfully involve them in the rulemaking process. And now, we have a WOTUS rule that doesn't work for rural America, among others. Many farms and ranches are small businesses. We know that EPA failed to conduct a small business advisory panel, a SBREFA, to calculate the impact that the WOTUS rule will have on small businesses.    So my question is, Ms. Kerrigan, in your capacity with the Small Business and Entrepreneurship Council, what are your thoughts on this procedural failure and the impact that the WOTUS rule will have on our small businesses?</t>
   </si>
   <si>
@@ -355,9 +328,6 @@
     <t>412514</t>
   </si>
   <si>
-    <t>Eric Swalwell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Swalwell. Thank you, Chair, and thank you to our witnesses.    And I wanted to start first with Ms. Kerrigan. Ms. Kerrigan, in your statement to the Committee, on page 2 you state in the third paragraph, if I'm correct, ``Regulation and the threat of new regulation continue to be a major issue of concern for our members.'' Is that right?</t>
   </si>
   <si>
@@ -430,9 +400,6 @@
     <t>412674</t>
   </si>
   <si>
-    <t>Darin LaHood</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman, and thank the witnesses for being here today. And I want to thank Chairman Smith for having this hearing today.    There was some references earlier on, you know, why we're having this hearing and the reason for it, and I would just tell you in my district when I talk to small and medium-sized businesses or I talk to farmers or healthcare providers or people in business, it's the number one issue that they talk about in terms of regulation, the overreach of the federal government, and, you know, the biggest hindrance to growing their small or medium-size business.    And, you know, when you also look at these regulations and the overreach, you know, from the standpoint--we've heard some arguments on, you know--from the other side on how these regulations make sense and we all want clean water and clean air, which we all share in that, but I think the other part of this is you look at what these lawsuits that have been filed in federal court, we look at yesterday the Supreme Court ruled--you know, put a stay on the climate rule, which is significant, basically let these lawsuits go forward, stopping that in its tracks.    You look at the Waters of the United States regulation, two federal judges, one in North Dakota, one in Cincinnati, have issued injunctive declaratory judgments on them basically saying these need to be stopped. They cannot go forward. And I think that's--if you look at the legal reasoning there, it's because of the overreach and the violation of laws here.    You also look at the executive order on immigration that has now gone to the U.S. Supreme Court because the Fifth Circuit underlying that has ruled that that appears to be unconstitutional, the point being that, you know, when you look at what this Administration has done particularly in terms of, you know, the regulation, the over-compliance, the--you know, the standards that have been put in place, and I think what I hear is, you know, there has not been a balanced kind of reasonable approach on this, working with business and industry. That seems to be the common theme.    And the question was asked earlier, well, what rule would you reverse? I think it should be asked from the standpoint of what could be put in place so that you have a dialogue and a discussion on how you work together to implement these rules to make it easier on business?    And, Mr. Bosworth, I commend you for engaging in the business you are and trying. It's a tough environment to do that.    But I guess for you, Ms. Kerrigan, in terms of a more balanced, reasonable approach in working with business on implementing these rules, you know, whether you could comment on that.</t>
   </si>
   <si>
@@ -454,9 +421,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman. And thanks to the witnesses being here. I've got a couple of questions, but first, I was--as we were listening to the testimony, I was reading over the testimony and I started wondering when does the madness actually come to an end? And as a small business owner for 20 years, I experienced the impact overregulation has on the small business community, whether it be environmental regulations, it being the IT business, affected my customers, whether it be health regulations brought on by the Affordable Care Act, which affected my customers, or whether it be Dodd-Frank, which affected everyone. I definitely saw the impact of overregulation.    But as I was reading over some of the testimony here, something--a question came to me as who gains? Who's going to gain from all of this? We had testimony here in this Committee that the average American family, the average American family pays $15,000 a year in hidden regulatory cost. Another report said that the 60 percent, 60 percent of the cost of a new home is due to government regulation.    So I'm wondering with all of this who actually gains, and then I read something in Ms. Kerrigan's testimony, which may indicate who gains from this. It was dealing with the Waters of the United States. When--I think the testimony said that there'll be $158 million in new permits that I would assume the EPA would be collecting those funds. So I think it's clear who gains in some of this regulation. It's not the consumer, it is not the individual citizen, it's the government. The government is the one that gains. But on to my question.    I did find a ray of hope as I was reading over the--I hope there's a ray of hope here as I was reading over some of the written testimonies. And Ms. Callahan writes in her written testimony ``Many stakeholders would like the U.S. Department of Energy to find ways to increase transparency with respect to the data and models it uses to make performance and energy-saving calculations. More transparency could help stakeholders make more informed contributions to the standards process and perhaps, more importantly, help prevent situations that lead to litigation and delay. Simply put, process pays dividends beyond energy savings.''    This is refreshing because definitely we need--we need more transparency, and if--what I'd like to ask of Ms. Kerrigan, Mr. Bosworth, and Mr. Batkins is are you seeing more transparency? Do we need to look for more transparency? Because, let me tell you, even with subpoena power, this committee is having a hard time getting transparency from these agencies, especially the EPA, who fails to respond to our requests for their data, for their models, for information. And so my first question is do we need--do you see a need for more transparency? And are these agencies looking? Ms. Kerrigan?</t>
   </si>
   <si>
@@ -529,9 +493,6 @@
     <t>412309</t>
   </si>
   <si>
-    <t>Bill Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you very much, Mr. Chairman.    Most people think Members of Congress make all the laws. In my office, four years ago we started collecting the daily register that's delivered to every Member of Congress, 435 Members of Congress, 100 Members of the Senate every day--excuse me--of the executive orders, rules, proposed rules, changes in rules. And I ask people how big do you think that stack is now? And I get answers, you know, from like four feet, six feet, eight feet, ten feet. Well, it's seven stacks over my head now, and that mostly is laws made by unelected people, unelected bureaucrats. It shocks a lot of people, but that's the very issue we're talking about here.    Ms. Kerrigan and Mr. Batkins, how do EPA and DOE regulations hurt those who live paycheck to paycheck, for example, senior citizens or others who may be on a low income level? Ladies first, time is wasting.</t>
   </si>
   <si>
@@ -634,9 +595,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair.    I have a couple things. One I'd just like to state for the record because I know this was said about Aliso Canyon earlier today that we have called for a Congressional committee on the gas leak in southern California. It is in my district. Hopefully, we will be capping that in the next week or so. And I have put forward a piece of legislation that will be a baseline of regulation from the federal level. So not all regulations are bad. There should be a baseline. But in that there's about 30 states that have to deal with underground piping, and they should be the authority and they can build regulation and legislation around that.    A couple things I wanted to bring up, though. You know, I think everyone goes around their district and they talk to businesses and businesses say, ``regulation is killing me,'' ``it's hurting me,'' ``it's taking away from my bottom line,'' or ``I'm having to pass along to the customer'' or whatever, but then we don't hear specifics.    And we had a bill earlier this year by Representative Smith about the--called the SCRUB Act. And it was talking about regulations that might not have been looked at over years or have been outdated or looking at the hundreds of thousands of pages that we have on the books already and why can't we look at some of these regulations and maybe get rid of them.    When I was in the state legislature in California there was a state in the south that had just gotten rid of their law that you couldn't leash your alligator to a fire hydrant. That probably had gotten outdated. I don't know when that was dated, but at some point somebody said that was no good anymore.    So what do we do about this, Ms. Kerrigan? How do we find certain regulations from industries or how do we get industries to come forward and say this is hurting me? And I'm going to give you a little follow-up on that here in a second but I want to let you start with that.</t>
   </si>
   <si>
@@ -668,9 +626,6 @@
   </si>
   <si>
     <t>412608</t>
-  </si>
-  <si>
-    <t>Gary J. Palmer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman, especially for that appropriate salutation. We'll try to make sure that Alabama stays on the radar for years to come unless they're regulated out of it.    Let's get back to the issue at hand. I know everybody's tired of questions and answers and--but a couple of points have been raised that I want to come back to. And there's two things about this whole issue of midnight regulations and really about how we're doing regulations, but particularly this idea that the executive branch, by executive fiat, can make law outside the legislative process. You lose transparency; you lose accountability. So that's one aspect of it. It's a constitutional aspect. And if we're going to have a constitutional government, we've got to get back to Congress making law rather than the executive branch bypassing Congress, making law through agencies.    But there's also the economic consequences. Ms. Kerrigan, there is a report out of Brookings, came out in May of 2014 that indicated that business dynamism is in decline. Have you seen that in your field of work? And here's a slide from that report that I want to draw your attention to.    [Slide.]</t>
@@ -1117,11 +1072,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1143,11 +1096,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1169,11 +1120,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1195,11 +1144,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1221,11 +1168,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1245,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1273,11 +1216,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1297,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1325,11 +1264,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1349,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1377,11 +1312,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1401,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1429,11 +1360,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1453,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1481,11 +1408,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1505,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1531,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1559,11 +1480,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1583,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1611,11 +1528,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1635,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1663,11 +1576,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1687,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1715,11 +1624,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1739,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1767,11 +1672,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1791,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1817,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1843,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1869,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1895,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1921,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1947,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1973,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1999,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2025,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2051,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2077,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2103,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2129,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2155,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2181,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2207,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2233,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2259,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2285,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2311,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2337,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2363,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2389,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2415,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2441,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2467,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2493,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2519,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2545,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2571,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2597,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2623,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2649,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2675,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2701,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2727,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2753,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>79</v>
-      </c>
-      <c r="H65" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2779,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2805,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2831,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2857,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2883,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2909,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2935,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2961,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2987,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3013,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3039,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3065,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3091,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3117,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3143,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3169,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3195,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3221,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3247,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3273,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3299,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3325,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3351,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3377,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
-      </c>
-      <c r="G89" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3403,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3429,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
-      </c>
-      <c r="G91" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3455,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3481,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3507,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3533,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3559,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3585,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3611,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3637,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
+        <v>103</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
         <v>112</v>
-      </c>
-      <c r="G99" t="s">
-        <v>113</v>
-      </c>
-      <c r="H99" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3663,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3689,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
-      </c>
-      <c r="G101" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3715,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3741,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>112</v>
-      </c>
-      <c r="G103" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3767,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3793,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G105" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3819,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3845,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
-      </c>
-      <c r="G107" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3871,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3897,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>112</v>
-      </c>
-      <c r="G109" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3923,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3949,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>112</v>
-      </c>
-      <c r="G111" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3975,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4001,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>112</v>
-      </c>
-      <c r="G113" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4027,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4053,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>137</v>
-      </c>
-      <c r="G115" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4079,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4105,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>137</v>
-      </c>
-      <c r="G117" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4131,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4157,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>137</v>
-      </c>
-      <c r="G119" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4183,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4209,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>145</v>
-      </c>
-      <c r="G121" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4235,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4261,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>145</v>
-      </c>
-      <c r="G123" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4287,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4313,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
-      </c>
-      <c r="G125" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4339,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4365,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>145</v>
-      </c>
-      <c r="G127" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4391,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4417,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
-      </c>
-      <c r="G129" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4443,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4469,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4495,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4521,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>145</v>
-      </c>
-      <c r="G133" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4547,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4573,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>145</v>
-      </c>
-      <c r="G135" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4599,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4625,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>145</v>
-      </c>
-      <c r="G137" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4651,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4677,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>145</v>
-      </c>
-      <c r="G139" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4703,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4729,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>145</v>
-      </c>
-      <c r="G141" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4755,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4781,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4807,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>170</v>
-      </c>
-      <c r="G144" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4833,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4859,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>170</v>
-      </c>
-      <c r="G146" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4885,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4911,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>170</v>
-      </c>
-      <c r="G148" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4937,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4963,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>170</v>
-      </c>
-      <c r="G150" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4989,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5015,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>24</v>
-      </c>
-      <c r="G152" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5041,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>170</v>
-      </c>
-      <c r="G153" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5067,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5093,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
+        <v>158</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
         <v>170</v>
-      </c>
-      <c r="G155" t="s">
-        <v>171</v>
-      </c>
-      <c r="H155" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5119,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
-      </c>
-      <c r="G156" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5145,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5171,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
-      </c>
-      <c r="G158" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5197,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>170</v>
-      </c>
-      <c r="G159" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5223,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5249,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G161" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5275,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5301,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>170</v>
-      </c>
-      <c r="G163" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5327,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5353,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>170</v>
-      </c>
-      <c r="G165" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5379,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5405,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>170</v>
-      </c>
-      <c r="G167" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5431,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5457,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>170</v>
-      </c>
-      <c r="G169" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5483,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>24</v>
-      </c>
-      <c r="G170" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5509,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>24</v>
-      </c>
-      <c r="G171" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5535,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>24</v>
-      </c>
-      <c r="G172" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5561,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5587,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>24</v>
-      </c>
-      <c r="G174" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5613,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>170</v>
-      </c>
-      <c r="G175" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5639,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5665,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>205</v>
-      </c>
-      <c r="G177" t="s">
-        <v>206</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5691,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>24</v>
-      </c>
-      <c r="G178" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5717,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>205</v>
-      </c>
-      <c r="G179" t="s">
-        <v>206</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5743,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>24</v>
-      </c>
-      <c r="G180" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5769,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>205</v>
-      </c>
-      <c r="G181" t="s">
-        <v>206</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5795,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>24</v>
-      </c>
-      <c r="G182" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5821,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>205</v>
-      </c>
-      <c r="G183" t="s">
-        <v>206</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5847,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5873,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>205</v>
-      </c>
-      <c r="G185" t="s">
-        <v>206</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5899,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5925,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>217</v>
-      </c>
-      <c r="G187" t="s">
-        <v>218</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5951,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>217</v>
-      </c>
-      <c r="G188" t="s">
-        <v>218</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5977,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>24</v>
-      </c>
-      <c r="G189" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6003,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>217</v>
-      </c>
-      <c r="G190" t="s">
-        <v>218</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6029,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>24</v>
-      </c>
-      <c r="G191" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6055,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>217</v>
-      </c>
-      <c r="G192" t="s">
-        <v>218</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6081,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>24</v>
-      </c>
-      <c r="G193" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6107,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>217</v>
-      </c>
-      <c r="G194" t="s">
-        <v>218</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6133,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>24</v>
-      </c>
-      <c r="G195" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6159,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>217</v>
-      </c>
-      <c r="G196" t="s">
-        <v>218</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6185,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>145</v>
-      </c>
-      <c r="G197" t="s">
-        <v>146</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6211,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>217</v>
-      </c>
-      <c r="G198" t="s">
-        <v>218</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6237,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>217</v>
-      </c>
-      <c r="G199" t="s">
-        <v>218</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6263,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>24</v>
-      </c>
-      <c r="G200" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6289,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>217</v>
-      </c>
-      <c r="G201" t="s">
+        <v>203</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
         <v>218</v>
-      </c>
-      <c r="H201" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6315,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20830.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20830.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome to today's hearing entitled ``Midnight Regulations: Examining Executive Branch Overreach.'' I'll recognize myself for five minutes and then the Ranking Member for her opening statement.    President Obama has rushed through many costly and burdensome regulations over the last seven years. These include the ozone National Ambient Air Quality Standards, the Waters of the United States, and the Clean Power Plan. The Obama Administration shows no signs of slowing down and no doubt will continue to pursue its partisan and extreme agenda, regardless of the price to the American people.    The speed at which these regulations are being finalized provide little certainty that these rules are based on a sound and transparent review of the underlying scientific data and analysis. The President's regulatory overreach will cost billions of dollars, cause financial hardship for American families, and diminish the competitiveness of American employers, all with no significant benefit to climate change, public health, or the economy.    According to the American Action Forum, regulatory costs topped $197 billion in 2015. This is a cost of over $600 for every American citizen. From 2016 alone, the Obama Administration has proposed another $98 billion in regulatory costs. According to AAF's analysis, my home State of Texas is one of the hardest hit by these burdensome regulations.    Despite heavy and growing public opposition to these proposals, the Obama Administration is actively willing to commit the United States to costly new regulations that will do nothing to improve the environment but will negatively impact economic growth. The Clean Power Plan and the Waters of the United States rule are just more of the EPA's attempts to expand its jurisdiction and increase its control over Americans. Congress voted against these rules through the Congressional Review Act last month. And the governors of most states continue to challenge overreaching regulations in court.    Yesterday, the Supreme Court blocked the Administration's rules to limit greenhouse gas emissions from power plants. The Court's ruling confirms that this rule overreaches EPA's authority.    But nothing seems to deter President Obama from achieving his extreme and unconstitutional climate agenda. Now, in an attempt to solidify his legacy before he leaves office, the President plans to rush through even more regulations. In the past year, the Department of Energy proposed 15 new energy efficiency standards, compared with just five energy efficiency standards proposed between 2009 and 2012. The DOE now works to issue costly energy efficiency rules on everything from household appliances to vending machines, including ceiling fans, air-conditioning and heating equipment, and residential boilers.    We should all be concerned about the process the EPA uses to reach their regulatory conclusions. The agency rushes to enact environmental regulations without thorough, public review of the data used to justify these rules. This hearing provides yet another example of why legislation like the Secret Science Reform Act and the Science Advisory Board Reform Act are important checks on regulatory overreach. We should require more fairness, transparency, and public engagement in the rulemaking process. The President should not rush scientific analysis to appease his political supporters.    We all support energy efficiency and a clean environment. The air we breathe is significantly cleaner and will continue to improve due to the development of new technologies. Basic research and development will continue to lead the way to energy solutions. This research should be allowed to mature so the private sector can transition new technologies into the market before the federal government sets new energy efficiency and environmental standards. There may be serious economic consequences if the EPA and the DOE rush forward with these proposed regulations. The cost is certain but the benefits are not.    Today's witnesses will discuss how regulatory burdens fall disproportionately upon small businesses and negatively impact economic productivity. Small businesses, like individual Americans, ultimately pay for these regulations. Higher prices for goods and services, combined with reduced economic activity, hinder private sector innovation and cause businesses to struggle to stay open.    These proposed regulations will have an even greater adverse impact on those who live on fixed incomes, such as the elderly and the poor, who are the most vulnerable to increases in the price for basic necessities like electricity and heat. More should be done to hold this Administration accountable. We must cut regulatory red tape and put America back on a path to growth and prosperity.    For this reason, I am pleased that the Speaker has selected the Science Committee to help lead a taskforce to reduce costly and unnecessary regulatory burdens. Rushed regulations in a President's last year are bad for the American economy and the American people. We can't afford to rush through regulations with little substantive environmental benefit and heavy costs to our economy.</t>
   </si>
   <si>
@@ -70,6 +79,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Chairman Smith. I'm pleased to introduce our third witness and fellow Texan Mr. Jerry Bosworth, President of Bosworth Air Conditioning and Vice Chairman of the Air Conditioning Contractors of America. Bosworth Air Conditioning is a family-owned and -operated business of ten employees, which was founded in 1959. Jerry was just a young whippersnapper back then. Bosworth A.C. specializes in both installation and service and replacement of both residential and commercial systems. Jerry served as Chairman of ACCA, Air Conditioning Contractors Association, and of the Members Services Committee. Prior to being elected to the National Board, he donated his time and energy as a member of the local contracting association, TACCA, or we would call it also Houston's Air Conditioning Contractors Association, and served on the board of his state contracting association.    Mr. Chairman, we are very grateful to have you here today. He's got one of the oldest and, I might add, finest air-conditioning companies next to Weber's Air and Heat on the Gulf Coast. So I'll----</t>
   </si>
   <si>
@@ -85,24 +100,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Kerrigan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kerrigan. Great. Well, thank you, Chairman Smith. It's a pleasure to be here. Thanks. Good morning to all the committee members. And it's--again, thank you for the invitation. This is a very important issue for our members in the small business sector of the economy.    It should come as no surprise to members of the committee that many small businesses have concerns about federal regulations and the process by which the rules are made. A host of new rules and ones yet to come are piling on at a time when small businesses continue to struggle in a very tough economy. Complying with existing regulations and navigating new rules takes time and significant resources. Business owners are now looking at what's currently in the pipeline, which only perpetuates the uncertainty that's behind less risk-taking and growth.    The period between the recession until now has been challenging for small businesses. A Bank of America survey conducted midyear last year found that only one in five small business owners say they have completely recovered from the Great Recession. So it is times such as these that federal agencies and government policies need to be especially sensitive about how proposed actions impact entrepreneurship and small business growth. After all, even given their struggles and challenges, small businesses and startups still remain the engine of job creation and innovation in our nation.    And it's that understanding that was behind the development and passage of laws meant to protect small businesses from excessive regulation and provide them with some voice in the regulatory process. But unfortunately, there has been a breakdown in the process and responsiveness to their concerns.    So as we enter a period where there will be a change of Administrations, and historically, this has been a time where there is an uptick in new rulemakings, I think you can empathize with the concerns of small business owners who feel that their voice and concerns can be minimized even further. We are concerned that an anticipated regulatory rush could lead to more shortcuts in a process that is meant to look out for small business owners.    The Mercatus Center analyzed data during the midnight regulatory period across Administrations from 1975 to 2006 and found regulatory analysis quality drops and regulatory oversight by the Office of Information and Regulatory Affairs weakens. As a result, federal agencies produce ineffective regulation, and these rules are more likely to be more costly.    So this is why we do hope there can be some actions, some reforms that will improve the process and make it more accountable and inclusive for the small business community because small businesses are disproportionately impacted by regulation, and I would add more so by environmental regulation. A National Association of Manufacturers' report details the disproportionate cost, which I've included in my written testimony.    EPA's possible activity is of concern given the Agency's history of improper certification of proposed rules when it comes to small business impact. On several major rulemakings, the SBA's Office of Advocacy made it clear that EPA's certification of rules did not comply with the Regulatory Flexibility Act. This was the case, for example, with greenhouse gas rules and the Waters of the United States Rule. In each of these cases, EPA's own analysis contradicted its certification.    The bottom line is that small businesses remain very concerned about what's ahead in 2016 on the federal regulatory front. With an economy that lacks a strong traction and with indications that economic growth may slow further, regulations that raise compliance and energy costs and make it more difficult to compete only create more headwinds for small businesses.    But I am somewhat optimistic. Thankfully, both sides of the political aisle recognize that we have a regulatory problem, a process problem as well. There are solid bipartisan solutions that have been proposed in the House and Senate that begin to chip away at the lack of accountability and to provide small businesses a greater voice and more protection in the regulatory process. And I look forward to discussing these with committee members. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Ms. Kerrigan.    And, Mr. Bosworth.</t>
   </si>
   <si>
+    <t>Bosworth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bosworth. Yes. Is this still on? There we go. I'm sorry.    Chairman Smith, Ranking Member Johnson, and members of the committee on energy, thank you for the opportunity to testify before you today. My name is Jerry Bosworth, and I am the President of Bosworth Air Conditioning and Heating in Galveston, Texas.    Bosworth Air Conditioning and Heating has been selling, installing, and servicing Galveston County's residential and commercial comfort systems since 1959. I am here today representing the interests of ACCA, the Indoor Environmental and Energy Efficiency Association. ACCA is the leading national association representing the technical, educational, and policy interests of small business contractors that design, install, and maintain residential and commercial heating and cooling systems. But I am also before you today representing more than the 1 million Americans employed by the manufacturers, distributors, contractors--and contractors of the HVACR industry.    Today, I would like to highlight some of the concerns related to the uptick in the number of rules and regulations related to the energy and environmental regulations the Department of Energy and the Environmental Protection Agency have had significant adverse impact on manufacturers, distributors, and contractors.    From the Department of Energy, we have seen an aggressive push to increase the energy efficiency standards for residential and commercial heating, ventilation, air-conditioning, refrigeration equipment, as well as water heaters. At the time--at the same time, we have been--there have been problems with the test procedures used to rate some of the equipment that makes it more difficult to achieve these higher standards, affecting a double impact.    As an example, the Department of Energy recently proposed a set of new minimum national energy conservation standards for residential natural gas furnaces at 92 percent AFUE, a ratio that describes how efficiency--how efficiently the appliance converts gas to heat. According to DOE's own economic models, nearly 1/3 of all homeowners in 19 southern States and territories would never see a positive payback from replacing their existing furnace; 12 percent of homeowners in the 33 northern States, a similar prospect.    In proposing to set this standard, DOE is effectively eliminating one type of furnace technology that represents half of the current models shipped today. I have installed a lot of furnaces in my lifetime, but only once have I installed a furnace that approached the standard DOE wants to set as the basic model for all States.    Higher efficiency furnaces like the ones DOE wants to mandate as a minimum are not appropriate in all parts of the country, not even the North. This is because furnaces that have an AFUE ratio equal or above 90 percent have special requirements that can only add thousands of dollars to the installation cost. This may force the homeowners to repair or maintain an older, inefficient model instead of upgrading, or it can drive many homeowners in areas of low heat load to opt for a heat pump, driving up the utility costs, leading to more fossil fuel emissions at the energy plant.    On Section 608, 608, the production, use, and handling of hundreds of refrigerant compounds that make air-conditioning and refrigeration possible are controlled and regulated by the EPA. Many have found it--many of these have been found to harm the ozone layer or have a higher global warming potential if they are released into the atmosphere. EPA rules requires anybody who works on an air-conditioning system to take a certification test to obtain their 608 card, named after Section 608 of the Clean Air Act, prohibiting the release of most refrigerants while performing any service or maintenance.    In order to comply with these rules, the service technician must be trained, have the required equipment, take the extra time to properly evacuate the entire refrigerant into an appropriate container before performing any service work to the sealed system. ACCA has no problem with these rules, but unfortunately, there are a lot of individuals who claim to be professional contractors who skirt these rules and are never caught. The bottom line--the bottom-feeders take advantage of a lax enforcement and undermine our industry.    So we think that better enforcement of--we would like to see better enforcement of the Section 608 rule. Unless significant changes are made to Section 608 program through increased enforcement, it cannot accomplish its mission to protect the environment and should be abandoned.    Lastly, I would like to bring to the Committee's attention an important gap in existing regulatory scheme for residential equipment. According to a 2013 National Institute of Standards and Technology study, there are substantial equipment efficiency losses due to poor installation practices typically due to duct leakage, refrigerant undercharge/overcharge, low indoor airflow, oversized equipment, and undersized ductwork.    For years, ACCA has championed the need for quality installations in the HVACR contracting business, and DOE seems to ignore our pleas.    So I look forward to any questions from the Committee. Thank you much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Bosworth.    And, Ms. Callahan.</t>
   </si>
   <si>
+    <t>Callahan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Callahan. Thank you, Mr. Chairman, and members of the committee, for the opportunity to testify before you today. I'm going to take a bit of departure from my fellow witnesses so far and talk about the significant and very positive impacts that appliance, equipment, and vehicle efficiency standards are having on our economy.    My organization, the Alliance to Save Energy, is a nonprofit coalition that has worked for 39 years to advance energy efficiency for the economic benefits, the improvement of the environment benefits, and also to enhance our energy security.    I'm very proud of the fact that we were founded by two then-sitting Members of Congress, Hubert Humphrey, a Democrat from Illinois; and Chuck Percy, a Republican from--excuse me--Hubert Humphrey, a Democrat from Minnesota; and Chuck Percy, a Republican from Illinois.    We have jealously guarded our inherited culture of bipartisanship, and today, we count 14 sitting Members of Congress from both sides of the aisle and both sides of the Capitol as honorary members of our board. And I'd like to take this moment to note that we are very pleased that Congressman Paul Tonko, a member of this committee, is part of our august group.    Our Congressional Members are joined on our Board of Directors by leaders from business and organizations across all sectors of the economy, including manufacturers and HVAC folks. Since the birth of the Alliance, our country has made very great strides in advancing energy efficiency, and that's thanks in large measure to effective national public policies, most notably, the appliance, equipment, and vehicle efficiency standards.    Efficiency standards have proven to be the most cost-effective way of driving energy efficiency into our market. In fact, if you take together the corporate average fuel economy standards and all our appliance and equipment standards, we're shaving off the energy use equivalent to ten percent of what we consume today. And that translates into very big money savings for Americans.    Studies have shown that American businesses and consumers today are saving $800 billion every year on their energy bills. And as a country, we've doubled our energy productivity over the past three decades. That is to say that we are creating twice as much gross domestic product today than we did--using half of the energy than we did in 1980.    We've done this once, and at our organization we believe we can do it again. The Alliance has articulated the goal of doubling energy productivity once again by 2030. If we do it, the benefits to our country are simply transformative. We would recycle $327 billion into our economy from energy cost savings. We would create 1.3 million new jobs, and we'd reduce the need for imported energy to represent less than seven percent of our total demand. But we can only achieve this goal with a strong foundation of public policies, and efficiency standards are a cornerstone of good national energy efficiency policy.    Fortunately, the history of our national efficiency standards is one of bipartisan support. I'm not sure committee members are aware, but the first corporate average fuel economy standards were signed into law by President Ford, and the first appliance and equipment standards were signed into law by President Reagan. These laws were created and moved through the Congress with broad bipartisan support. Over the decades, this tradition of bipartisan support has remained solid, with the Congress enacting significant legislation in 1990, '92, 2005, and 2007. All included efficiency standards.    The bipartisan work--this bipartisan work on standards is paying big dividends for our economy. For example, by 2020, appliance and equipment standards alone, not including CAFE standards, will be contributing 387,000 annual jobs to our economy. And these are jobs that are spread all across all 50 States.    As the focus of this hearing is on midnight regulations, I believe it's important to note that in the case of efficiency standards at least, it's Congress--not the Administration--that dictates the timelines and deadlines for action. And these aren't tied in any way to a given President's term in office.    The typical time needed to complete a standards rulemaking is three years because it involves a significant engagement with impacted manufacturers, stakeholders, and others throughout the process. It is true that the pace of standards rulemaking has been brisk during the Obama Administration. This was driven in large part by a need to meet Congressional directives and court-ordered mandates to catch up on backlogged standards. We see no evidence that the Administration can or will rush any efficiency standards at the end of this President's term.    While we have achieved great success through our--through appliance and equipment efficiency standards, we do believe there's always room for improvement. The Alliance, along with many stakeholders and others, would like DOE to make more transparent the models and data that it's using to perform its energy savings and performance calculations. And doing so would help to avoid delays in litigation.    There's also a big something I'm here to ask you to do, and that is to refrain from placing ad hoc policy riders on legislation that prevents DOE from enforcing standards that have been codified. Mr. Bosworth already mentioned that this allows what I would call unscrupulous manufacturers--he calls them bottom-feeders--to flout the law. So we'd like to see that.    So in conclusion, there is a huge portfolio of research and analysis that demonstrates that efficiency standards are driving innovation, saving American businesses and consumers money on their energy bills, and they're creating jobs. All of this leads to a more energy-productive and more globally competitive economy. Congress should be proud of the work it has done in this area and should continue this legacy of bipartisan legislation to set minimum efficiency standards for our appliances, our equipment, and our vehicles. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Ms. Callahan.    And, Mr. Batkins.</t>
   </si>
   <si>
+    <t>Batkins</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Batkins. Thank you, Chairman Smith, and Members of the Committee.    [Slide.]</t>
   </si>
   <si>
@@ -139,6 +166,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Okay. Thank you, Chair. And thank you to all of our witnesses for joining us today.    Kateri, it indeed is great to see you, and thank you for the awesome work the Alliance does on this issue. I'm proud to serve as an honorary member, as you indicated, of the Alliance's board, and I strongly believe that energy efficiency should be our fuel of choice.    I have to tell you, I shared with Chair Smith--he had asked me about that assignment. I said I was on the board with the Alliance prior to my days in Congress also as President and CEO of NYSERDA, New York State's Energy Research and Development Authority. So I'm proud of that assignment. I'm especially proud that New York's capital region has recognized that it is indeed necessary to innovate and make the transition to a more energy efficient world.    So my question to you, Ms. Callahan, in your assessment of the industry, it is your experience that regulation often will spur the private sector to innovate. Do you agree that private industry in America has proven time and time again that it has the ability to adapt and grow when new rules or policies are introduced? And specifically, how have you seen industry innovate as a result of energy efficiency standards?</t>
   </si>
   <si>
@@ -232,6 +265,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman, very much. I'd like to thank the Chair and the Ranking Member for having this hearing in the first place. It's very important. And thank all of you for coming and being with us. And I especially appreciate the perspective from both the majority and the minority that regulations are important and that it's important that we get them right.    I've been in business 42 years, and the--see the impact that OSHA has had, that clean air and clean water and food safety and drug effectiveness and all these incredible things.    But it's also important that we get the balance right in terms of the cost-effectiveness. I remember when I served in the Virginia Senate, one of the proposals was that we get rid of all asbestos in Virginia schools at a cost of $2 billion, and they estimated it would save the life of one child. We said, well, is that the best way to spend $2 billion in terms of children's health? And maybe not.    So let me move on. To Mr. Batkins, your chart I thought was fascinating because I just wanted to point out that the high point was in 2008 when George W. Bush was President, and that the low point over all those years was in 2012 when President Obama faced a very uncertain election against Mitt Romney. So I was glad to see that it was very--presented in a nonpartisan way, that this is not just beating up on President Obama for what you fear will happen in 2016.    Mr. Bosworth, thank you for talking about the unintended consequences of the condensing versus non-condensing furnaces. I loved your line that the false choice between short-sighted solution to repair and maintain old efficiency equipment--inefficient equipment and purchasing new equipment that will never have a positive payback.    Ms. Callahan wrote, and I quote, ``The process that leads to standards is informed at every step by stakeholders representing diverse sectors so that negotiations reflect the respective interests of industry and consumers and will have positive effects on the environment.'' And you just elaborated on that, Ms. Callahan, just a minute ago.    Mr. Bosworth, so you're in the business at the retail level. You said the process is broken. How does your experience differ from what Ms. Callahan talked about in terms of promulgating these regulations? Why haven't this process with industry and stakeholders and consumers not apparently worked with respect to these furnaces?</t>
   </si>
   <si>
@@ -307,6 +346,12 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Babin. Yes, sir. Thank you, Mr. Chairman. And thank you, panelists, for being here today.    At last week's full committee SST hearing, we learned that this Administration has apparently been using fuzzy math to justify their promised reductions, 26 to 28 percent reduction of greenhouse gas emissions from 2005 levels at the Paris Climate Conference this past December. It's another example of how far this President's Administration will go to fulfill a politically driven agenda. It is an agenda not based on sound science.    Over the last seven years, this President has pushed some of the costliest regulations in the history of the republic, including the Clean Power Plan, the ozone rule, and Waters of the United States. And in the final year of his Administration, President Obama is eager to push more of his ``all pain, no gain'' regulations in the same manner in which he pushed his other regulations, with little regard to regulatory process and the underlying science. And more importantly, he shows little regard as to how this would adversely affect senior citizens, the poor, and those living on fixed incomes, as we've heard earlier today.    It's extremely important to invoke all stakeholders in the regulatory process. We heard from the agricultural sector and others that EPA did not meaningfully involve them in the rulemaking process. And now, we have a WOTUS rule that doesn't work for rural America, among others. Many farms and ranches are small businesses. We know that EPA failed to conduct a small business advisory panel, a SBREFA, to calculate the impact that the WOTUS rule will have on small businesses.    So my question is, Ms. Kerrigan, in your capacity with the Small Business and Entrepreneurship Council, what are your thoughts on this procedural failure and the impact that the WOTUS rule will have on our small businesses?</t>
   </si>
   <si>
@@ -328,6 +373,12 @@
     <t>412514</t>
   </si>
   <si>
+    <t>Swalwell</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Swalwell. Thank you, Chair, and thank you to our witnesses.    And I wanted to start first with Ms. Kerrigan. Ms. Kerrigan, in your statement to the Committee, on page 2 you state in the third paragraph, if I'm correct, ``Regulation and the threat of new regulation continue to be a major issue of concern for our members.'' Is that right?</t>
   </si>
   <si>
@@ -400,6 +451,12 @@
     <t>412674</t>
   </si>
   <si>
+    <t>LaHood</t>
+  </si>
+  <si>
+    <t>Darin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman, and thank the witnesses for being here today. And I want to thank Chairman Smith for having this hearing today.    There was some references earlier on, you know, why we're having this hearing and the reason for it, and I would just tell you in my district when I talk to small and medium-sized businesses or I talk to farmers or healthcare providers or people in business, it's the number one issue that they talk about in terms of regulation, the overreach of the federal government, and, you know, the biggest hindrance to growing their small or medium-size business.    And, you know, when you also look at these regulations and the overreach, you know, from the standpoint--we've heard some arguments on, you know--from the other side on how these regulations make sense and we all want clean water and clean air, which we all share in that, but I think the other part of this is you look at what these lawsuits that have been filed in federal court, we look at yesterday the Supreme Court ruled--you know, put a stay on the climate rule, which is significant, basically let these lawsuits go forward, stopping that in its tracks.    You look at the Waters of the United States regulation, two federal judges, one in North Dakota, one in Cincinnati, have issued injunctive declaratory judgments on them basically saying these need to be stopped. They cannot go forward. And I think that's--if you look at the legal reasoning there, it's because of the overreach and the violation of laws here.    You also look at the executive order on immigration that has now gone to the U.S. Supreme Court because the Fifth Circuit underlying that has ruled that that appears to be unconstitutional, the point being that, you know, when you look at what this Administration has done particularly in terms of, you know, the regulation, the over-compliance, the--you know, the standards that have been put in place, and I think what I hear is, you know, there has not been a balanced kind of reasonable approach on this, working with business and industry. That seems to be the common theme.    And the question was asked earlier, well, what rule would you reverse? I think it should be asked from the standpoint of what could be put in place so that you have a dialogue and a discussion on how you work together to implement these rules to make it easier on business?    And, Mr. Bosworth, I commend you for engaging in the business you are and trying. It's a tough environment to do that.    But I guess for you, Ms. Kerrigan, in terms of a more balanced, reasonable approach in working with business on implementing these rules, you know, whether you could comment on that.</t>
   </si>
   <si>
@@ -421,6 +478,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman. And thanks to the witnesses being here. I've got a couple of questions, but first, I was--as we were listening to the testimony, I was reading over the testimony and I started wondering when does the madness actually come to an end? And as a small business owner for 20 years, I experienced the impact overregulation has on the small business community, whether it be environmental regulations, it being the IT business, affected my customers, whether it be health regulations brought on by the Affordable Care Act, which affected my customers, or whether it be Dodd-Frank, which affected everyone. I definitely saw the impact of overregulation.    But as I was reading over some of the testimony here, something--a question came to me as who gains? Who's going to gain from all of this? We had testimony here in this Committee that the average American family, the average American family pays $15,000 a year in hidden regulatory cost. Another report said that the 60 percent, 60 percent of the cost of a new home is due to government regulation.    So I'm wondering with all of this who actually gains, and then I read something in Ms. Kerrigan's testimony, which may indicate who gains from this. It was dealing with the Waters of the United States. When--I think the testimony said that there'll be $158 million in new permits that I would assume the EPA would be collecting those funds. So I think it's clear who gains in some of this regulation. It's not the consumer, it is not the individual citizen, it's the government. The government is the one that gains. But on to my question.    I did find a ray of hope as I was reading over the--I hope there's a ray of hope here as I was reading over some of the written testimonies. And Ms. Callahan writes in her written testimony ``Many stakeholders would like the U.S. Department of Energy to find ways to increase transparency with respect to the data and models it uses to make performance and energy-saving calculations. More transparency could help stakeholders make more informed contributions to the standards process and perhaps, more importantly, help prevent situations that lead to litigation and delay. Simply put, process pays dividends beyond energy savings.''    This is refreshing because definitely we need--we need more transparency, and if--what I'd like to ask of Ms. Kerrigan, Mr. Bosworth, and Mr. Batkins is are you seeing more transparency? Do we need to look for more transparency? Because, let me tell you, even with subpoena power, this committee is having a hard time getting transparency from these agencies, especially the EPA, who fails to respond to our requests for their data, for their models, for information. And so my first question is do we need--do you see a need for more transparency? And are these agencies looking? Ms. Kerrigan?</t>
   </si>
   <si>
@@ -493,6 +556,12 @@
     <t>412309</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you very much, Mr. Chairman.    Most people think Members of Congress make all the laws. In my office, four years ago we started collecting the daily register that's delivered to every Member of Congress, 435 Members of Congress, 100 Members of the Senate every day--excuse me--of the executive orders, rules, proposed rules, changes in rules. And I ask people how big do you think that stack is now? And I get answers, you know, from like four feet, six feet, eight feet, ten feet. Well, it's seven stacks over my head now, and that mostly is laws made by unelected people, unelected bureaucrats. It shocks a lot of people, but that's the very issue we're talking about here.    Ms. Kerrigan and Mr. Batkins, how do EPA and DOE regulations hurt those who live paycheck to paycheck, for example, senior citizens or others who may be on a low income level? Ladies first, time is wasting.</t>
   </si>
   <si>
@@ -595,6 +664,12 @@
     <t>412614</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair.    I have a couple things. One I'd just like to state for the record because I know this was said about Aliso Canyon earlier today that we have called for a Congressional committee on the gas leak in southern California. It is in my district. Hopefully, we will be capping that in the next week or so. And I have put forward a piece of legislation that will be a baseline of regulation from the federal level. So not all regulations are bad. There should be a baseline. But in that there's about 30 states that have to deal with underground piping, and they should be the authority and they can build regulation and legislation around that.    A couple things I wanted to bring up, though. You know, I think everyone goes around their district and they talk to businesses and businesses say, ``regulation is killing me,'' ``it's hurting me,'' ``it's taking away from my bottom line,'' or ``I'm having to pass along to the customer'' or whatever, but then we don't hear specifics.    And we had a bill earlier this year by Representative Smith about the--called the SCRUB Act. And it was talking about regulations that might not have been looked at over years or have been outdated or looking at the hundreds of thousands of pages that we have on the books already and why can't we look at some of these regulations and maybe get rid of them.    When I was in the state legislature in California there was a state in the south that had just gotten rid of their law that you couldn't leash your alligator to a fire hydrant. That probably had gotten outdated. I don't know when that was dated, but at some point somebody said that was no good anymore.    So what do we do about this, Ms. Kerrigan? How do we find certain regulations from industries or how do we get industries to come forward and say this is hurting me? And I'm going to give you a little follow-up on that here in a second but I want to let you start with that.</t>
   </si>
   <si>
@@ -626,6 +701,12 @@
   </si>
   <si>
     <t>412608</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman, especially for that appropriate salutation. We'll try to make sure that Alabama stays on the radar for years to come unless they're regulated out of it.    Let's get back to the issue at hand. I know everybody's tired of questions and answers and--but a couple of points have been raised that I want to come back to. And there's two things about this whole issue of midnight regulations and really about how we're doing regulations, but particularly this idea that the executive branch, by executive fiat, can make law outside the legislative process. You lose transparency; you lose accountability. So that's one aspect of it. It's a constitutional aspect. And if we're going to have a constitutional government, we've got to get back to Congress making law rather than the executive branch bypassing Congress, making law through agencies.    But there's also the economic consequences. Ms. Kerrigan, there is a report out of Brookings, came out in May of 2014 that indicated that business dynamism is in decline. Have you seen that in your field of work? And here's a slide from that report that I want to draw your attention to.    [Slide.]</t>
@@ -1022,7 +1103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,7 +1111,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,4829 +1133,5671 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G63" t="s">
+        <v>83</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>71</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G73" t="s">
+        <v>83</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G75" t="s">
+        <v>83</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G77" t="s">
+        <v>83</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G79" t="s">
+        <v>83</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>71</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G81" t="s">
+        <v>83</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G83" t="s">
+        <v>110</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G85" t="s">
+        <v>110</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G87" t="s">
+        <v>110</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
       <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G89" t="s">
+        <v>119</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G91" t="s">
+        <v>119</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G93" t="s">
+        <v>119</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G95" t="s">
+        <v>119</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G97" t="s">
+        <v>119</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G99" t="s">
+        <v>119</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>103</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G101" t="s">
+        <v>119</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>103</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G103" t="s">
+        <v>119</v>
+      </c>
       <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>103</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G105" t="s">
+        <v>119</v>
+      </c>
       <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>103</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G107" t="s">
+        <v>119</v>
+      </c>
       <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>103</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G109" t="s">
+        <v>119</v>
+      </c>
       <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>103</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G111" t="s">
+        <v>119</v>
+      </c>
       <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G112" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>103</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G113" t="s">
+        <v>119</v>
+      </c>
       <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>21</v>
+      </c>
       <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>127</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G115" t="s">
+        <v>145</v>
+      </c>
       <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>127</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G117" t="s">
+        <v>145</v>
+      </c>
       <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G118" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>127</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G119" t="s">
+        <v>145</v>
+      </c>
       <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>21</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>134</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G121" t="s">
+        <v>154</v>
+      </c>
       <c r="H121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>134</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G123" t="s">
+        <v>154</v>
+      </c>
       <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>134</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G125" t="s">
+        <v>154</v>
+      </c>
       <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>134</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G127" t="s">
+        <v>154</v>
+      </c>
       <c r="H127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G128" t="s">
+        <v>28</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>134</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G129" t="s">
+        <v>154</v>
+      </c>
       <c r="H129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
+        <v>21</v>
+      </c>
       <c r="H131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>134</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G133" t="s">
+        <v>154</v>
+      </c>
       <c r="H133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>134</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G135" t="s">
+        <v>154</v>
+      </c>
       <c r="H135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G136" t="s">
+        <v>37</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>134</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G137" t="s">
+        <v>154</v>
+      </c>
       <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>134</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G139" t="s">
+        <v>154</v>
+      </c>
       <c r="H139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I139" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G140" t="s">
+        <v>34</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>134</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G141" t="s">
+        <v>154</v>
+      </c>
       <c r="H141" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G142" t="s">
+        <v>34</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G143" t="s">
+        <v>21</v>
+      </c>
       <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I143" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>158</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G144" t="s">
+        <v>180</v>
+      </c>
       <c r="H144" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I144" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G145" t="s">
+        <v>28</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>158</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G146" t="s">
+        <v>180</v>
+      </c>
       <c r="H146" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G147" t="s">
+        <v>37</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>158</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G148" t="s">
+        <v>180</v>
+      </c>
       <c r="H148" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I148" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G149" t="s">
+        <v>28</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>158</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G150" t="s">
+        <v>180</v>
+      </c>
       <c r="H150" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s">
+        <v>28</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G152" t="s">
+        <v>37</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>158</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G153" t="s">
+        <v>180</v>
+      </c>
       <c r="H153" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G154" t="s">
+        <v>37</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>158</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G155" t="s">
+        <v>180</v>
+      </c>
       <c r="H155" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I155" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G156" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>21</v>
+      </c>
       <c r="H157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I157" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G158" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>158</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G159" t="s">
+        <v>180</v>
+      </c>
       <c r="H159" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I159" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s">
+        <v>31</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>158</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G161" t="s">
+        <v>180</v>
+      </c>
       <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I161" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>158</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G163" t="s">
+        <v>180</v>
+      </c>
       <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G164" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>158</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G165" t="s">
+        <v>180</v>
+      </c>
       <c r="H165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I165" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G166" t="s">
+        <v>21</v>
+      </c>
       <c r="H166" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I166" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>158</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G167" t="s">
+        <v>180</v>
+      </c>
       <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I167" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G168" t="s">
+        <v>21</v>
+      </c>
       <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I168" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>158</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G169" t="s">
+        <v>180</v>
+      </c>
       <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I169" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G170" t="s">
+        <v>31</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G171" t="s">
+        <v>34</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G172" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G173" t="s">
+        <v>34</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G174" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>158</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G175" t="s">
+        <v>180</v>
+      </c>
       <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I175" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>21</v>
+      </c>
       <c r="H176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I176" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>192</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G177" t="s">
+        <v>216</v>
+      </c>
       <c r="H177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I177" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G178" t="s">
+        <v>28</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>192</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G179" t="s">
+        <v>216</v>
+      </c>
       <c r="H179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I179" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G180" t="s">
+        <v>37</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>192</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G181" t="s">
+        <v>216</v>
+      </c>
       <c r="H181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I181" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>22</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G182" t="s">
+        <v>37</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>192</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G183" t="s">
+        <v>216</v>
+      </c>
       <c r="H183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I183" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G184" t="s">
+        <v>21</v>
+      </c>
       <c r="H184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I184" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>192</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G185" t="s">
+        <v>216</v>
+      </c>
       <c r="H185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I185" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G186" t="s">
+        <v>21</v>
+      </c>
       <c r="H186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I186" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>203</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G187" t="s">
+        <v>229</v>
+      </c>
       <c r="H187" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I187" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>203</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G188" t="s">
+        <v>229</v>
+      </c>
       <c r="H188" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I188" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G189" t="s">
+        <v>28</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>203</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G190" t="s">
+        <v>229</v>
+      </c>
       <c r="H190" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I190" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G191" t="s">
+        <v>28</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>203</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G192" t="s">
+        <v>229</v>
+      </c>
       <c r="H192" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I192" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G193" t="s">
+        <v>28</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>203</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G194" t="s">
+        <v>229</v>
+      </c>
       <c r="H194" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I194" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G195" t="s">
+        <v>28</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>203</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G196" t="s">
+        <v>229</v>
+      </c>
       <c r="H196" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>134</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G197" t="s">
+        <v>154</v>
+      </c>
       <c r="H197" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I197" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>203</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G198" t="s">
+        <v>229</v>
+      </c>
       <c r="H198" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I198" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>203</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G199" t="s">
+        <v>229</v>
+      </c>
       <c r="H199" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I199" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>22</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G200" t="s">
+        <v>28</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>203</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>228</v>
+      </c>
+      <c r="G201" t="s">
+        <v>229</v>
+      </c>
       <c r="H201" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="I201" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G202" t="s">
+        <v>21</v>
+      </c>
       <c r="H202" t="s">
-        <v>219</v>
+        <v>22</v>
+      </c>
+      <c r="I202" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20830.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20830.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
   </si>
   <si>
     <t>412574</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Weber</t>
@@ -1103,7 +1112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1120,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,5668 +1145,6108 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I60" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s">
-        <v>28</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H73" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H77" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>34</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G83" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G85" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I85" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G87" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G91" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I91" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G95" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G97" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H103" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G105" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H105" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G107" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H107" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s">
-        <v>28</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G109" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H109" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G111" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H111" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I111" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G113" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H113" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G115" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G117" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I117" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" t="s">
-        <v>37</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G119" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G120" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H120" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I120" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G121" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G123" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H123" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I123" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G125" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G127" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I127" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s">
-        <v>28</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G129" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I129" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H131" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I131" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G133" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I133" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>34</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G135" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I135" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s">
-        <v>37</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>40</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G137" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H137" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I137" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" t="s">
-        <v>34</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>37</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G139" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H139" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I139" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
-      </c>
-      <c r="G140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>37</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H141" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I141" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
-      </c>
-      <c r="G142" t="s">
-        <v>34</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>37</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H143" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I143" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G144" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I144" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J144" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>27</v>
-      </c>
-      <c r="G145" t="s">
-        <v>28</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G146" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H146" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I146" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>27</v>
-      </c>
-      <c r="G147" t="s">
-        <v>37</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>40</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G148" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I148" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J148" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>27</v>
-      </c>
-      <c r="G149" t="s">
-        <v>28</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G150" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I150" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>27</v>
-      </c>
-      <c r="G151" t="s">
-        <v>28</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" t="s">
-        <v>37</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>40</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G153" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I153" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J153" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>27</v>
-      </c>
-      <c r="G154" t="s">
-        <v>37</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>40</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G155" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H155" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I155" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J155" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>27</v>
-      </c>
-      <c r="G156" t="s">
-        <v>31</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>34</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G157" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H157" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J157" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>27</v>
-      </c>
-      <c r="G158" t="s">
-        <v>31</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>34</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G159" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H159" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I159" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>27</v>
-      </c>
-      <c r="G160" t="s">
-        <v>31</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>34</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G161" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H161" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I161" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J161" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>27</v>
-      </c>
-      <c r="G162" t="s">
-        <v>31</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>34</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G163" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H163" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I163" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>27</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>34</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G165" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H165" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I165" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G166" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H166" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I166" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J166" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G167" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H167" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I167" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J167" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G168" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H168" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I168" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G169" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H169" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I169" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J169" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>27</v>
-      </c>
-      <c r="G170" t="s">
-        <v>31</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>34</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>27</v>
-      </c>
-      <c r="G171" t="s">
-        <v>34</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>37</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>27</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>34</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>27</v>
-      </c>
-      <c r="G173" t="s">
-        <v>34</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>37</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>27</v>
-      </c>
-      <c r="G174" t="s">
-        <v>31</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>34</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G175" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H175" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I175" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G176" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H176" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I176" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G177" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="H177" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I177" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J177" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>27</v>
-      </c>
-      <c r="G178" t="s">
-        <v>28</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>31</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G179" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="H179" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I179" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>27</v>
-      </c>
-      <c r="G180" t="s">
-        <v>37</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>40</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G181" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="H181" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I181" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J181" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>27</v>
-      </c>
-      <c r="G182" t="s">
-        <v>37</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>40</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G183" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="H183" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I183" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J183" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G184" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H184" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I184" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G185" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="H185" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I185" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J185" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G186" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H186" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I186" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J186" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G187" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H187" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I187" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J187" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G188" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H188" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I188" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J188" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>27</v>
-      </c>
-      <c r="G189" t="s">
-        <v>28</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>31</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G190" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H190" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I190" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J190" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>27</v>
-      </c>
-      <c r="G191" t="s">
-        <v>28</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>31</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G192" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H192" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I192" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J192" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>27</v>
-      </c>
-      <c r="G193" t="s">
-        <v>28</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>31</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G194" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H194" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I194" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J194" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>27</v>
-      </c>
-      <c r="G195" t="s">
-        <v>28</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>31</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G196" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H196" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I196" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J196" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G197" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H197" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I197" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J197" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G198" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H198" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I198" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J198" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G199" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H199" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I199" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J199" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>27</v>
-      </c>
-      <c r="G200" t="s">
-        <v>28</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>31</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G201" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H201" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I201" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J201" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G202" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H202" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I202" t="s">
-        <v>246</v>
+        <v>25</v>
+      </c>
+      <c r="J202" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
